--- a/public/temp/assets.xlsx
+++ b/public/temp/assets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>Danh sách trang thiết bị</t>
   </si>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>2046</t>
+  </si>
+  <si>
+    <t>Tồn kho
+(Dạnh số)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +223,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -293,13 +297,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -312,7 +313,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -594,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G4" sqref="G4:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,652 +618,731 @@
     <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G4" s="8">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="F4" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G5" s="8">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="F5" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G5" s="9">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="F6" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G6" s="9">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G7" s="8">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="F7" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G8" s="8">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="F8" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G9" s="8">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="F9" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G9" s="9">
+        <v>20</v>
+      </c>
+      <c r="H9" s="10">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G10" s="8">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="F10" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G10" s="9">
+        <v>20</v>
+      </c>
+      <c r="H10" s="10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G11" s="8">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="F11" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G11" s="9">
+        <v>20</v>
+      </c>
+      <c r="H11" s="10">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G12" s="8">
-        <v>20</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="F12" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G12" s="9">
+        <v>20</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G13" s="8">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="F13" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>20</v>
+      </c>
+      <c r="H13" s="10">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G14" s="8">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="F14" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G14" s="9">
+        <v>20</v>
+      </c>
+      <c r="H14" s="10">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G15" s="8">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="F15" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G15" s="9">
+        <v>20</v>
+      </c>
+      <c r="H15" s="10">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G16" s="8">
-        <v>20</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="F16" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G16" s="9">
+        <v>20</v>
+      </c>
+      <c r="H16" s="10">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G17" s="8">
-        <v>20</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="F17" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G17" s="9">
+        <v>20</v>
+      </c>
+      <c r="H17" s="10">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G18" s="8">
-        <v>20</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="F18" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G18" s="9">
+        <v>20</v>
+      </c>
+      <c r="H18" s="10">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G19" s="8">
-        <v>20</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="F19" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G19" s="9">
+        <v>20</v>
+      </c>
+      <c r="H19" s="10">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G20" s="8">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="F20" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G20" s="9">
+        <v>20</v>
+      </c>
+      <c r="H20" s="10">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G21" s="8">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="F21" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G21" s="9">
+        <v>20</v>
+      </c>
+      <c r="H21" s="10">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G22" s="8">
-        <v>20</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="F22" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G22" s="9">
+        <v>20</v>
+      </c>
+      <c r="H22" s="10">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G23" s="8">
-        <v>20</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="F23" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G23" s="9">
+        <v>20</v>
+      </c>
+      <c r="H23" s="10">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G24" s="8">
-        <v>20</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="F24" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G24" s="9">
+        <v>20</v>
+      </c>
+      <c r="H24" s="10">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G25" s="8">
-        <v>20</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="F25" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G25" s="9">
+        <v>20</v>
+      </c>
+      <c r="H25" s="10">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G26" s="8">
-        <v>20</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="F26" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G26" s="9">
+        <v>20</v>
+      </c>
+      <c r="H26" s="10">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G27" s="8">
-        <v>20</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="F27" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G27" s="9">
+        <v>20</v>
+      </c>
+      <c r="H27" s="10">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="8">
-        <v>14020000</v>
-      </c>
-      <c r="G28" s="8">
-        <v>20</v>
-      </c>
-      <c r="H28" s="4"/>
+      <c r="F28" s="7">
+        <v>14020000</v>
+      </c>
+      <c r="G28" s="9">
+        <v>20</v>
+      </c>
+      <c r="H28" s="10">
+        <v>10</v>
+      </c>
+      <c r="I28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/temp/assets.xlsx
+++ b/public/temp/assets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\longbien\public\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\longbien\public\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Danh sách trang thiết bị</t>
   </si>
@@ -211,10 +211,6 @@
   </si>
   <si>
     <t>2046</t>
-  </si>
-  <si>
-    <t>Tồn kho
-(Dạnh số)</t>
   </si>
 </sst>
 </file>
@@ -297,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,13 +310,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H28"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,25 +611,24 @@
     <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -659,13 +651,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -684,15 +673,12 @@
       <c r="F4" s="7">
         <v>14020000</v>
       </c>
-      <c r="G4" s="9">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="8">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -711,15 +697,12 @@
       <c r="F5" s="7">
         <v>14020000</v>
       </c>
-      <c r="G5" s="9">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="8">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -738,15 +721,12 @@
       <c r="F6" s="7">
         <v>14020000</v>
       </c>
-      <c r="G6" s="9">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -765,15 +745,12 @@
       <c r="F7" s="7">
         <v>14020000</v>
       </c>
-      <c r="G7" s="9">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="8">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -792,15 +769,12 @@
       <c r="F8" s="7">
         <v>14020000</v>
       </c>
-      <c r="G8" s="9">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="8">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -819,15 +793,12 @@
       <c r="F9" s="7">
         <v>14020000</v>
       </c>
-      <c r="G9" s="9">
-        <v>20</v>
-      </c>
-      <c r="H9" s="10">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="8">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -846,15 +817,12 @@
       <c r="F10" s="7">
         <v>14020000</v>
       </c>
-      <c r="G10" s="9">
-        <v>20</v>
-      </c>
-      <c r="H10" s="10">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -873,15 +841,12 @@
       <c r="F11" s="7">
         <v>14020000</v>
       </c>
-      <c r="G11" s="9">
-        <v>20</v>
-      </c>
-      <c r="H11" s="10">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -900,15 +865,12 @@
       <c r="F12" s="7">
         <v>14020000</v>
       </c>
-      <c r="G12" s="9">
-        <v>20</v>
-      </c>
-      <c r="H12" s="10">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="8">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -927,15 +889,12 @@
       <c r="F13" s="7">
         <v>14020000</v>
       </c>
-      <c r="G13" s="9">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="8">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -954,15 +913,12 @@
       <c r="F14" s="7">
         <v>14020000</v>
       </c>
-      <c r="G14" s="9">
-        <v>20</v>
-      </c>
-      <c r="H14" s="10">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="8">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -981,15 +937,12 @@
       <c r="F15" s="7">
         <v>14020000</v>
       </c>
-      <c r="G15" s="9">
-        <v>20</v>
-      </c>
-      <c r="H15" s="10">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="8">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1008,15 +961,12 @@
       <c r="F16" s="7">
         <v>14020000</v>
       </c>
-      <c r="G16" s="9">
-        <v>20</v>
-      </c>
-      <c r="H16" s="10">
-        <v>10</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="8">
+        <v>20</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1035,15 +985,12 @@
       <c r="F17" s="7">
         <v>14020000</v>
       </c>
-      <c r="G17" s="9">
-        <v>20</v>
-      </c>
-      <c r="H17" s="10">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="8">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1062,15 +1009,12 @@
       <c r="F18" s="7">
         <v>14020000</v>
       </c>
-      <c r="G18" s="9">
-        <v>20</v>
-      </c>
-      <c r="H18" s="10">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="8">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1089,15 +1033,12 @@
       <c r="F19" s="7">
         <v>14020000</v>
       </c>
-      <c r="G19" s="9">
-        <v>20</v>
-      </c>
-      <c r="H19" s="10">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="8">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1116,15 +1057,12 @@
       <c r="F20" s="7">
         <v>14020000</v>
       </c>
-      <c r="G20" s="9">
-        <v>20</v>
-      </c>
-      <c r="H20" s="10">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="8">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1143,15 +1081,12 @@
       <c r="F21" s="7">
         <v>14020000</v>
       </c>
-      <c r="G21" s="9">
-        <v>20</v>
-      </c>
-      <c r="H21" s="10">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="8">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1170,15 +1105,12 @@
       <c r="F22" s="7">
         <v>14020000</v>
       </c>
-      <c r="G22" s="9">
-        <v>20</v>
-      </c>
-      <c r="H22" s="10">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="8">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1197,15 +1129,12 @@
       <c r="F23" s="7">
         <v>14020000</v>
       </c>
-      <c r="G23" s="9">
-        <v>20</v>
-      </c>
-      <c r="H23" s="10">
-        <v>10</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="8">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1224,15 +1153,12 @@
       <c r="F24" s="7">
         <v>14020000</v>
       </c>
-      <c r="G24" s="9">
-        <v>20</v>
-      </c>
-      <c r="H24" s="10">
-        <v>10</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="8">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1251,15 +1177,12 @@
       <c r="F25" s="7">
         <v>14020000</v>
       </c>
-      <c r="G25" s="9">
-        <v>20</v>
-      </c>
-      <c r="H25" s="10">
-        <v>10</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="8">
+        <v>20</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1278,15 +1201,12 @@
       <c r="F26" s="7">
         <v>14020000</v>
       </c>
-      <c r="G26" s="9">
-        <v>20</v>
-      </c>
-      <c r="H26" s="10">
-        <v>10</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="8">
+        <v>20</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1305,15 +1225,12 @@
       <c r="F27" s="7">
         <v>14020000</v>
       </c>
-      <c r="G27" s="9">
-        <v>20</v>
-      </c>
-      <c r="H27" s="10">
-        <v>10</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="8">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1332,17 +1249,14 @@
       <c r="F28" s="7">
         <v>14020000</v>
       </c>
-      <c r="G28" s="9">
-        <v>20</v>
-      </c>
-      <c r="H28" s="10">
-        <v>10</v>
-      </c>
-      <c r="I28" s="3"/>
+      <c r="G28" s="8">
+        <v>20</v>
+      </c>
+      <c r="H28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
